--- a/data/tehilim-data/58.xlsx
+++ b/data/tehilim-data/58.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="199">
   <si>
     <t>original</t>
   </si>
@@ -292,15 +292,18 @@
     <t>искусного</t>
   </si>
   <si>
+    <t>חָכָֽם</t>
+  </si>
+  <si>
+    <t>умного</t>
+  </si>
+  <si>
     <t>מְ֝לֻחַ֗שׁ</t>
   </si>
   <si>
     <t>заклинателя</t>
   </si>
   <si>
-    <t>חָכָֽם</t>
-  </si>
-  <si>
     <t>ז</t>
   </si>
   <si>
@@ -499,110 +502,119 @@
     <t>יא</t>
   </si>
   <si>
-    <t>יִשְׂמַ֣ח</t>
+    <t>ישמח</t>
   </si>
   <si>
     <t>возрадуется</t>
   </si>
   <si>
-    <t>צַ֭דִּיק</t>
+    <t>צדיק</t>
   </si>
   <si>
     <t>праведник</t>
   </si>
   <si>
-    <t>כִּֽי־חָזָ֣ה</t>
-  </si>
-  <si>
-    <t>потому что увидит</t>
-  </si>
-  <si>
-    <t>נָקָ֑ם</t>
-  </si>
-  <si>
-    <t>месть</t>
-  </si>
-  <si>
-    <t>פְּעָמָ֥יו</t>
-  </si>
-  <si>
-    <t>ноги</t>
-  </si>
-  <si>
-    <t>יִרְחַ֥ץ</t>
+    <t>כי</t>
+  </si>
+  <si>
+    <t>ибо</t>
+  </si>
+  <si>
+    <t>חזה</t>
+  </si>
+  <si>
+    <t>узреет</t>
+  </si>
+  <si>
+    <t>נקם</t>
+  </si>
+  <si>
+    <t>мщение</t>
+  </si>
+  <si>
+    <t>פעמיו</t>
+  </si>
+  <si>
+    <t>стопы его</t>
+  </si>
+  <si>
+    <t>ירחץ</t>
   </si>
   <si>
     <t>омоет</t>
   </si>
   <si>
-    <t>בְּדַ֝֗ם</t>
+    <t>בדם</t>
   </si>
   <si>
     <t>в крови</t>
   </si>
   <si>
-    <t>הָרָשָֽׁע</t>
-  </si>
-  <si>
-    <t>нечестивого</t>
+    <t>הרשע</t>
+  </si>
+  <si>
+    <t>злодея</t>
   </si>
   <si>
     <t>יב</t>
   </si>
   <si>
-    <t>וְיֹאמַ֣ר</t>
+    <t>ויאמר</t>
   </si>
   <si>
     <t>и скажет</t>
   </si>
   <si>
-    <t>אָדָ֑ם</t>
+    <t>אדם</t>
   </si>
   <si>
     <t>человек</t>
   </si>
   <si>
-    <t>אַךְ־</t>
-  </si>
-  <si>
-    <t>פְּרִ֥י</t>
-  </si>
-  <si>
-    <t>есть награда</t>
-  </si>
-  <si>
-    <t>לַֽצַּדִּ֗יק</t>
-  </si>
-  <si>
-    <t>для праведника</t>
-  </si>
-  <si>
-    <t>יֵ֥שׁ</t>
+    <t>אך</t>
+  </si>
+  <si>
+    <t>конечно</t>
+  </si>
+  <si>
+    <t>פרי</t>
+  </si>
+  <si>
+    <t>плод</t>
+  </si>
+  <si>
+    <t>לצדיק</t>
+  </si>
+  <si>
+    <t>праведнику</t>
+  </si>
+  <si>
+    <t>יש</t>
   </si>
   <si>
     <t>есть</t>
   </si>
   <si>
-    <t>אֱלֹהִ֑ים</t>
+    <t>אלהים</t>
   </si>
   <si>
     <t>Бог</t>
   </si>
   <si>
-    <t>שֹׁפְטִ֖ים</t>
+    <t>שפטים</t>
   </si>
   <si>
     <t>судья</t>
   </si>
   <si>
-    <t>בָּאָ֣רֶץ</t>
+    <t>בארץ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -615,6 +627,16 @@
     </font>
     <font>
       <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -643,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -653,14 +675,30 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1290,10 +1328,13 @@
       <c r="A52" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="B52" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B53" s="5">
         <v>7.0</v>
@@ -1301,71 +1342,71 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B62" s="5">
         <v>8.0</v>
@@ -1373,15 +1414,15 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>72</v>
@@ -1389,47 +1430,47 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>72</v>
@@ -1437,15 +1478,15 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B72" s="5">
         <v>9.0</v>
@@ -1461,63 +1502,63 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B81" s="5">
         <v>10.0</v>
@@ -1525,34 +1566,34 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86">
@@ -1565,15 +1606,15 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>72</v>
@@ -1581,667 +1622,668 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B92" s="5">
         <v>11.0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B93" s="4" t="s">
+      <c r="A93" s="6" t="s">
         <v>163</v>
       </c>
+      <c r="B93" s="7" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B94" s="4" t="s">
+      <c r="A94" s="6" t="s">
         <v>165</v>
       </c>
+      <c r="B94" s="7" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B95" s="4" t="s">
+      <c r="A95" s="6" t="s">
         <v>167</v>
       </c>
+      <c r="B95" s="7" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B96" s="4" t="s">
+      <c r="A96" s="6" t="s">
         <v>169</v>
       </c>
+      <c r="B96" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B97" s="4" t="s">
+      <c r="A97" s="6" t="s">
         <v>171</v>
       </c>
+      <c r="B97" s="7" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B98" s="4" t="s">
+      <c r="A98" s="6" t="s">
         <v>173</v>
       </c>
+      <c r="B98" s="7" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B99" s="4" t="s">
+      <c r="A99" s="6" t="s">
         <v>175</v>
       </c>
+      <c r="B99" s="7" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B100" s="4" t="s">
+      <c r="A100" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="B100" s="7" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B101" s="5">
+      <c r="A101" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B102" s="8">
         <v>12.0</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
     <row r="103">
-      <c r="A103" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B103" s="4" t="s">
+      <c r="A103" s="6" t="s">
         <v>182</v>
       </c>
+      <c r="B103" s="7" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>17</v>
+      <c r="A104" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>185</v>
+      <c r="A105" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>187</v>
+      <c r="A106" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>17</v>
+      <c r="A107" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>189</v>
+      <c r="A108" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>191</v>
+      <c r="A109" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>193</v>
+      <c r="A110" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B111" s="4" t="s">
+      <c r="A111" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="3"/>
+      <c r="A112" s="9"/>
+      <c r="B112" s="10"/>
     </row>
     <row r="113">
-      <c r="A113" s="3"/>
+      <c r="A113" s="11"/>
     </row>
     <row r="114">
-      <c r="A114" s="3"/>
+      <c r="A114" s="11"/>
     </row>
     <row r="115">
-      <c r="A115" s="3"/>
+      <c r="A115" s="11"/>
     </row>
     <row r="116">
-      <c r="A116" s="3"/>
+      <c r="A116" s="11"/>
     </row>
     <row r="117">
-      <c r="A117" s="3"/>
+      <c r="A117" s="11"/>
     </row>
     <row r="118">
-      <c r="A118" s="3"/>
+      <c r="A118" s="11"/>
     </row>
     <row r="119">
-      <c r="A119" s="3"/>
+      <c r="A119" s="11"/>
     </row>
     <row r="120">
-      <c r="A120" s="3"/>
+      <c r="A120" s="11"/>
     </row>
     <row r="121">
-      <c r="A121" s="3"/>
+      <c r="A121" s="11"/>
     </row>
     <row r="122">
-      <c r="A122" s="3"/>
+      <c r="A122" s="11"/>
     </row>
     <row r="123">
-      <c r="A123" s="3"/>
+      <c r="A123" s="11"/>
     </row>
     <row r="124">
-      <c r="A124" s="3"/>
+      <c r="A124" s="11"/>
     </row>
     <row r="125">
-      <c r="A125" s="3"/>
+      <c r="A125" s="11"/>
     </row>
     <row r="126">
-      <c r="A126" s="3"/>
+      <c r="A126" s="11"/>
     </row>
     <row r="127">
-      <c r="A127" s="3"/>
+      <c r="A127" s="11"/>
     </row>
     <row r="128">
-      <c r="A128" s="3"/>
+      <c r="A128" s="11"/>
     </row>
     <row r="129">
-      <c r="A129" s="3"/>
+      <c r="A129" s="11"/>
     </row>
     <row r="130">
-      <c r="A130" s="3"/>
+      <c r="A130" s="11"/>
     </row>
     <row r="131">
-      <c r="A131" s="3"/>
+      <c r="A131" s="11"/>
     </row>
     <row r="132">
-      <c r="A132" s="3"/>
+      <c r="A132" s="11"/>
     </row>
     <row r="133">
-      <c r="A133" s="3"/>
+      <c r="A133" s="11"/>
     </row>
     <row r="134">
-      <c r="A134" s="3"/>
+      <c r="A134" s="11"/>
     </row>
     <row r="135">
-      <c r="A135" s="3"/>
+      <c r="A135" s="11"/>
     </row>
     <row r="136">
-      <c r="A136" s="3"/>
+      <c r="A136" s="11"/>
     </row>
     <row r="137">
-      <c r="A137" s="3"/>
+      <c r="A137" s="11"/>
     </row>
     <row r="138">
-      <c r="A138" s="3"/>
+      <c r="A138" s="11"/>
     </row>
     <row r="139">
-      <c r="A139" s="3"/>
+      <c r="A139" s="11"/>
     </row>
     <row r="140">
-      <c r="A140" s="3"/>
+      <c r="A140" s="11"/>
     </row>
     <row r="141">
-      <c r="A141" s="3"/>
+      <c r="A141" s="11"/>
     </row>
     <row r="142">
-      <c r="A142" s="3"/>
+      <c r="A142" s="11"/>
     </row>
     <row r="143">
-      <c r="A143" s="3"/>
+      <c r="A143" s="11"/>
     </row>
     <row r="144">
-      <c r="A144" s="3"/>
+      <c r="A144" s="11"/>
     </row>
     <row r="146">
-      <c r="A146" s="3"/>
+      <c r="A146" s="11"/>
     </row>
     <row r="147">
-      <c r="A147" s="3"/>
+      <c r="A147" s="11"/>
     </row>
     <row r="148">
-      <c r="A148" s="3"/>
+      <c r="A148" s="11"/>
     </row>
     <row r="149">
-      <c r="A149" s="3"/>
+      <c r="A149" s="11"/>
     </row>
     <row r="150">
-      <c r="A150" s="3"/>
+      <c r="A150" s="11"/>
     </row>
     <row r="151">
-      <c r="A151" s="3"/>
+      <c r="A151" s="11"/>
     </row>
     <row r="152">
-      <c r="A152" s="3"/>
+      <c r="A152" s="11"/>
     </row>
     <row r="153">
-      <c r="A153" s="3"/>
+      <c r="A153" s="11"/>
     </row>
     <row r="154">
-      <c r="A154" s="3"/>
+      <c r="A154" s="11"/>
     </row>
     <row r="155">
-      <c r="A155" s="3"/>
+      <c r="A155" s="11"/>
     </row>
     <row r="156">
-      <c r="A156" s="3"/>
+      <c r="A156" s="11"/>
     </row>
     <row r="157">
-      <c r="A157" s="3"/>
+      <c r="A157" s="11"/>
     </row>
     <row r="158">
-      <c r="A158" s="3"/>
+      <c r="A158" s="11"/>
     </row>
     <row r="159">
-      <c r="A159" s="3"/>
+      <c r="A159" s="11"/>
     </row>
     <row r="160">
-      <c r="A160" s="3"/>
+      <c r="A160" s="11"/>
     </row>
     <row r="161">
-      <c r="A161" s="3"/>
+      <c r="A161" s="11"/>
     </row>
     <row r="162">
-      <c r="A162" s="3"/>
+      <c r="A162" s="11"/>
     </row>
     <row r="163">
-      <c r="A163" s="3"/>
+      <c r="A163" s="11"/>
     </row>
     <row r="164">
-      <c r="A164" s="3"/>
+      <c r="A164" s="11"/>
     </row>
     <row r="165">
-      <c r="A165" s="3"/>
+      <c r="A165" s="11"/>
     </row>
     <row r="166">
-      <c r="A166" s="3"/>
+      <c r="A166" s="11"/>
     </row>
     <row r="167">
-      <c r="A167" s="3"/>
+      <c r="A167" s="11"/>
     </row>
     <row r="168">
-      <c r="A168" s="3"/>
+      <c r="A168" s="11"/>
     </row>
     <row r="169">
-      <c r="A169" s="3"/>
+      <c r="A169" s="11"/>
     </row>
     <row r="170">
-      <c r="A170" s="3"/>
+      <c r="A170" s="11"/>
     </row>
     <row r="171">
-      <c r="A171" s="3"/>
+      <c r="A171" s="11"/>
     </row>
     <row r="172">
-      <c r="A172" s="3"/>
+      <c r="A172" s="11"/>
     </row>
     <row r="173">
-      <c r="A173" s="3"/>
+      <c r="A173" s="11"/>
     </row>
     <row r="174">
-      <c r="A174" s="3"/>
+      <c r="A174" s="11"/>
     </row>
     <row r="175">
-      <c r="A175" s="3"/>
+      <c r="A175" s="11"/>
     </row>
     <row r="176">
-      <c r="A176" s="3"/>
+      <c r="A176" s="11"/>
     </row>
     <row r="177">
-      <c r="A177" s="3"/>
+      <c r="A177" s="11"/>
     </row>
     <row r="178">
-      <c r="A178" s="3"/>
+      <c r="A178" s="11"/>
     </row>
     <row r="179">
-      <c r="A179" s="3"/>
+      <c r="A179" s="11"/>
     </row>
     <row r="180">
-      <c r="A180" s="3"/>
+      <c r="A180" s="11"/>
     </row>
     <row r="181">
-      <c r="A181" s="3"/>
+      <c r="A181" s="11"/>
     </row>
     <row r="182">
-      <c r="A182" s="3"/>
+      <c r="A182" s="11"/>
     </row>
     <row r="183">
-      <c r="A183" s="3"/>
+      <c r="A183" s="11"/>
     </row>
     <row r="184">
-      <c r="A184" s="3"/>
+      <c r="A184" s="11"/>
     </row>
     <row r="185">
-      <c r="A185" s="3"/>
+      <c r="A185" s="11"/>
     </row>
     <row r="186">
-      <c r="A186" s="3"/>
+      <c r="A186" s="11"/>
     </row>
     <row r="187">
-      <c r="A187" s="3"/>
+      <c r="A187" s="11"/>
     </row>
     <row r="188">
-      <c r="A188" s="3"/>
+      <c r="A188" s="11"/>
     </row>
     <row r="189">
-      <c r="A189" s="3"/>
+      <c r="A189" s="11"/>
     </row>
     <row r="190">
-      <c r="A190" s="3"/>
+      <c r="A190" s="11"/>
     </row>
     <row r="191">
-      <c r="A191" s="3"/>
+      <c r="A191" s="11"/>
     </row>
     <row r="192">
-      <c r="A192" s="3"/>
+      <c r="A192" s="11"/>
     </row>
     <row r="193">
-      <c r="A193" s="3"/>
+      <c r="A193" s="11"/>
     </row>
     <row r="194">
-      <c r="A194" s="3"/>
+      <c r="A194" s="11"/>
     </row>
     <row r="195">
-      <c r="A195" s="3"/>
+      <c r="A195" s="11"/>
     </row>
     <row r="196">
-      <c r="A196" s="3"/>
+      <c r="A196" s="11"/>
     </row>
     <row r="197">
-      <c r="A197" s="3"/>
+      <c r="A197" s="11"/>
     </row>
     <row r="198">
-      <c r="A198" s="3"/>
+      <c r="A198" s="11"/>
     </row>
     <row r="199">
-      <c r="A199" s="3"/>
+      <c r="A199" s="11"/>
     </row>
     <row r="200">
-      <c r="A200" s="3"/>
+      <c r="A200" s="11"/>
     </row>
     <row r="201">
-      <c r="A201" s="3"/>
+      <c r="A201" s="11"/>
     </row>
     <row r="202">
-      <c r="A202" s="3"/>
+      <c r="A202" s="11"/>
     </row>
     <row r="203">
-      <c r="A203" s="3"/>
+      <c r="A203" s="11"/>
     </row>
     <row r="204">
-      <c r="A204" s="3"/>
+      <c r="A204" s="11"/>
     </row>
     <row r="205">
-      <c r="A205" s="3"/>
+      <c r="A205" s="11"/>
     </row>
     <row r="206">
-      <c r="A206" s="3"/>
+      <c r="A206" s="11"/>
     </row>
     <row r="207">
-      <c r="A207" s="3"/>
+      <c r="A207" s="11"/>
     </row>
     <row r="208">
-      <c r="A208" s="3"/>
+      <c r="A208" s="11"/>
     </row>
     <row r="209">
-      <c r="A209" s="3"/>
+      <c r="A209" s="11"/>
     </row>
     <row r="210">
-      <c r="A210" s="3"/>
+      <c r="A210" s="11"/>
     </row>
     <row r="211">
-      <c r="A211" s="3"/>
+      <c r="A211" s="11"/>
     </row>
     <row r="212">
-      <c r="A212" s="3"/>
+      <c r="A212" s="11"/>
     </row>
     <row r="213">
-      <c r="A213" s="3"/>
+      <c r="A213" s="11"/>
     </row>
     <row r="214">
-      <c r="A214" s="3"/>
+      <c r="A214" s="11"/>
     </row>
     <row r="215">
-      <c r="A215" s="3"/>
+      <c r="A215" s="11"/>
     </row>
     <row r="216">
-      <c r="A216" s="3"/>
+      <c r="A216" s="11"/>
     </row>
     <row r="217">
-      <c r="A217" s="3"/>
+      <c r="A217" s="11"/>
     </row>
     <row r="218">
-      <c r="A218" s="3"/>
+      <c r="A218" s="11"/>
     </row>
     <row r="219">
-      <c r="A219" s="3"/>
+      <c r="A219" s="11"/>
     </row>
     <row r="220">
-      <c r="A220" s="3"/>
+      <c r="A220" s="11"/>
     </row>
     <row r="221">
-      <c r="A221" s="3"/>
+      <c r="A221" s="11"/>
     </row>
     <row r="222">
-      <c r="A222" s="3"/>
+      <c r="A222" s="11"/>
     </row>
     <row r="223">
-      <c r="A223" s="3"/>
+      <c r="A223" s="11"/>
     </row>
     <row r="224">
-      <c r="A224" s="3"/>
+      <c r="A224" s="11"/>
     </row>
     <row r="225">
-      <c r="A225" s="3"/>
+      <c r="A225" s="11"/>
     </row>
     <row r="226">
-      <c r="A226" s="3"/>
+      <c r="A226" s="11"/>
     </row>
     <row r="227">
-      <c r="A227" s="3"/>
+      <c r="A227" s="11"/>
     </row>
     <row r="228">
-      <c r="A228" s="3"/>
+      <c r="A228" s="11"/>
     </row>
     <row r="229">
-      <c r="A229" s="3"/>
+      <c r="A229" s="11"/>
     </row>
     <row r="230">
-      <c r="A230" s="3"/>
+      <c r="A230" s="11"/>
     </row>
     <row r="231">
-      <c r="A231" s="3"/>
+      <c r="A231" s="11"/>
     </row>
     <row r="232">
-      <c r="A232" s="3"/>
+      <c r="A232" s="11"/>
     </row>
     <row r="233">
-      <c r="A233" s="3"/>
+      <c r="A233" s="11"/>
     </row>
     <row r="234">
-      <c r="A234" s="3"/>
+      <c r="A234" s="11"/>
     </row>
     <row r="235">
-      <c r="A235" s="3"/>
+      <c r="A235" s="11"/>
     </row>
     <row r="236">
-      <c r="A236" s="3"/>
+      <c r="A236" s="11"/>
     </row>
     <row r="238">
-      <c r="A238" s="3"/>
+      <c r="A238" s="11"/>
     </row>
     <row r="239">
-      <c r="A239" s="3"/>
+      <c r="A239" s="11"/>
     </row>
     <row r="240">
-      <c r="A240" s="3"/>
+      <c r="A240" s="11"/>
     </row>
     <row r="241">
-      <c r="A241" s="3"/>
+      <c r="A241" s="11"/>
     </row>
     <row r="242">
-      <c r="A242" s="3"/>
+      <c r="A242" s="11"/>
     </row>
     <row r="243">
-      <c r="A243" s="3"/>
+      <c r="A243" s="11"/>
     </row>
     <row r="244">
-      <c r="A244" s="3"/>
+      <c r="A244" s="11"/>
     </row>
     <row r="245">
-      <c r="A245" s="3"/>
+      <c r="A245" s="11"/>
     </row>
     <row r="246">
-      <c r="A246" s="3"/>
+      <c r="A246" s="11"/>
     </row>
     <row r="247">
-      <c r="A247" s="3"/>
+      <c r="A247" s="11"/>
     </row>
     <row r="248">
-      <c r="A248" s="3"/>
+      <c r="A248" s="11"/>
     </row>
     <row r="249">
-      <c r="A249" s="3"/>
+      <c r="A249" s="11"/>
     </row>
     <row r="250">
-      <c r="A250" s="3"/>
+      <c r="A250" s="11"/>
     </row>
     <row r="251">
-      <c r="A251" s="3"/>
+      <c r="A251" s="11"/>
     </row>
     <row r="252">
-      <c r="A252" s="3"/>
+      <c r="A252" s="11"/>
     </row>
     <row r="253">
-      <c r="A253" s="3"/>
+      <c r="A253" s="11"/>
     </row>
     <row r="254">
-      <c r="A254" s="3"/>
+      <c r="A254" s="11"/>
     </row>
     <row r="255">
-      <c r="A255" s="3"/>
+      <c r="A255" s="11"/>
     </row>
     <row r="256">
-      <c r="A256" s="3"/>
+      <c r="A256" s="11"/>
     </row>
     <row r="257">
-      <c r="A257" s="3"/>
+      <c r="A257" s="11"/>
     </row>
     <row r="258">
-      <c r="A258" s="3"/>
+      <c r="A258" s="11"/>
     </row>
     <row r="259">
-      <c r="A259" s="3"/>
+      <c r="A259" s="11"/>
     </row>
     <row r="260">
-      <c r="A260" s="3"/>
+      <c r="A260" s="11"/>
     </row>
     <row r="261">
-      <c r="A261" s="3"/>
+      <c r="A261" s="11"/>
     </row>
     <row r="262">
-      <c r="A262" s="3"/>
+      <c r="A262" s="11"/>
     </row>
     <row r="263">
-      <c r="A263" s="3"/>
+      <c r="A263" s="11"/>
     </row>
     <row r="264">
-      <c r="A264" s="3"/>
+      <c r="A264" s="11"/>
     </row>
     <row r="265">
-      <c r="A265" s="3"/>
+      <c r="A265" s="11"/>
     </row>
     <row r="266">
-      <c r="A266" s="3"/>
+      <c r="A266" s="11"/>
     </row>
     <row r="267">
-      <c r="A267" s="3"/>
+      <c r="A267" s="11"/>
     </row>
     <row r="268">
-      <c r="A268" s="3"/>
+      <c r="A268" s="11"/>
     </row>
     <row r="269">
-      <c r="A269" s="3"/>
+      <c r="A269" s="11"/>
     </row>
     <row r="270">
-      <c r="A270" s="3"/>
+      <c r="A270" s="11"/>
     </row>
     <row r="271">
-      <c r="A271" s="3"/>
+      <c r="A271" s="11"/>
     </row>
     <row r="272">
-      <c r="A272" s="3"/>
+      <c r="A272" s="11"/>
     </row>
     <row r="273">
-      <c r="A273" s="3"/>
+      <c r="A273" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
